--- a/tut05/output/0501EE19.xlsx
+++ b/tut05/output/0501EE19.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.63265306122449</v>
+        <v>7.63</v>
       </c>
       <c r="C6" t="n">
-        <v>7.045454545454546</v>
+        <v>7.05</v>
       </c>
       <c r="D6" t="n">
-        <v>7.717391304347826</v>
+        <v>7.72</v>
       </c>
       <c r="E6" t="n">
-        <v>6.847826086956522</v>
+        <v>6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>7.846153846153846</v>
+        <v>7.85</v>
       </c>
       <c r="G6" t="n">
-        <v>7.225</v>
+        <v>7.22</v>
       </c>
       <c r="H6" t="n">
-        <v>6.953488372093023</v>
+        <v>6.95</v>
       </c>
       <c r="I6" t="n">
-        <v>6.842105263157895</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.63265306122449</v>
+        <v>7.63</v>
       </c>
       <c r="C8" t="n">
-        <v>7.354838709677419</v>
+        <v>7.35</v>
       </c>
       <c r="D8" t="n">
-        <v>7.474820143884892</v>
+        <v>7.47</v>
       </c>
       <c r="E8" t="n">
-        <v>7.318918918918919</v>
+        <v>7.32</v>
       </c>
       <c r="F8" t="n">
-        <v>7.410714285714286</v>
+        <v>7.41</v>
       </c>
       <c r="G8" t="n">
-        <v>7.382575757575758</v>
+        <v>7.38</v>
       </c>
       <c r="H8" t="n">
-        <v>7.322475570032573</v>
+        <v>7.32</v>
       </c>
       <c r="I8" t="n">
-        <v>7.269565217391304</v>
+        <v>7.27</v>
       </c>
     </row>
   </sheetData>
